--- a/FileInput/DataEngine.xlsx
+++ b/FileInput/DataEngine.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="142">
   <si>
     <t>TCID</t>
   </si>
@@ -320,6 +320,141 @@
   </si>
   <si>
     <t>stockTable</t>
+  </si>
+  <si>
+    <t>Wait for Supplier link</t>
+  </si>
+  <si>
+    <t>Click Supplier link</t>
+  </si>
+  <si>
+    <t>(//a[starts-with(text(),'Suppliers')])[2]</t>
+  </si>
+  <si>
+    <t>Wait for Supplier Number</t>
+  </si>
+  <si>
+    <t>capture Supplier number</t>
+  </si>
+  <si>
+    <t>captuersupplier</t>
+  </si>
+  <si>
+    <t>Enter supplier name</t>
+  </si>
+  <si>
+    <t>Enter Address</t>
+  </si>
+  <si>
+    <t>Enter City</t>
+  </si>
+  <si>
+    <t>Enter Country</t>
+  </si>
+  <si>
+    <t>Enter contact person</t>
+  </si>
+  <si>
+    <t>Enter phone number</t>
+  </si>
+  <si>
+    <t>Enter email</t>
+  </si>
+  <si>
+    <t>Enter mobile number</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Supplier_Name']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_City']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Country']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Contact_Person']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Phone_Number']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Mobile_Number']</t>
+  </si>
+  <si>
+    <t>Lg Supplier</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Address']</t>
+  </si>
+  <si>
+    <t>Ameerpert,12-20-23,Qedgetech</t>
+  </si>
+  <si>
+    <t>Ameerpert</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>QedgeTech</t>
+  </si>
+  <si>
+    <t>//input[@id='x__Email']</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Notes']</t>
+  </si>
+  <si>
+    <t>Iam supplying lg goods</t>
+  </si>
+  <si>
+    <t>supplierTable</t>
+  </si>
+  <si>
+    <t>Wait for Customer link</t>
+  </si>
+  <si>
+    <t>Click Customer link</t>
+  </si>
+  <si>
+    <t>Wait for Customer Number</t>
+  </si>
+  <si>
+    <t>capture Customer number</t>
+  </si>
+  <si>
+    <t>Enter Customer name</t>
+  </si>
+  <si>
+    <t>Ramuand krishna</t>
+  </si>
+  <si>
+    <t>Kukatpally,5-3-34/1</t>
+  </si>
+  <si>
+    <t>Ranga</t>
+  </si>
+  <si>
+    <t>Iam customer for Goods</t>
+  </si>
+  <si>
+    <t>(//a[contains(text(),'Customers')])[2]</t>
+  </si>
+  <si>
+    <t>x_Customer_Number</t>
+  </si>
+  <si>
+    <t>captuerCustomer</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Customer_Name']</t>
+  </si>
+  <si>
+    <t>customerTable</t>
   </si>
 </sst>
 </file>
@@ -701,7 +836,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -758,7 +893,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -770,7 +905,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -782,7 +917,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -1020,8 +1155,8 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22:F23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1461,8 +1596,8 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1815,7 +1950,7 @@
         <v>92</v>
       </c>
       <c r="E19" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="6"/>
     </row>
@@ -2024,13 +2159,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.58984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.58984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="1.2">
       <c r="A1" s="1" t="s">
@@ -2052,20 +2196,589 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="4">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="6">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="6">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="6">
+        <v>10</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A15" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A17" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A18" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="5">
+        <v>9876543212</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A22" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A23" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="5">
+        <v>54789547895</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A25" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="5">
+        <v>10</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="5">
+        <v>10</v>
+      </c>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E22" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="25.953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.58984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.58984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="1.2">
       <c r="A1" s="1" t="s">
@@ -2087,7 +2800,568 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="4">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="6">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="6">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="6">
+        <v>10</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A15" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A16" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A17" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A18" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="5">
+        <v>3214785965</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A22" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A23" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2145789547</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A25" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="5">
+        <v>10</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="5">
+        <v>10</v>
+      </c>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E22" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>